--- a/public/export_pds/pdsForCapstone.xlsx
+++ b/public/export_pds/pdsForCapstone.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Second Sem\3 ITP321 Capstone Project 1\Caspstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hrmis\public\export_pds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D05651E-E7B5-4B6A-9370-47EA26ACCA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456FFA6-2799-4358-9341-327A21928629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -2612,7 +2612,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="788">
+  <cellXfs count="790">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3438,10 +3438,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3529,6 +3525,10 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4695,76 +4695,84 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -4777,6 +4785,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4991,20 +5008,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -8427,8 +8435,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A29" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:N48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8737,8 +8745,8 @@
       <c r="H14" s="225"/>
       <c r="I14" s="225"/>
       <c r="J14" s="227"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="297" t="s">
+      <c r="K14" s="295"/>
+      <c r="L14" s="296" t="s">
         <v>408</v>
       </c>
       <c r="M14" s="386" t="s">
@@ -8786,7 +8794,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="83"/>
-      <c r="D16" s="295" t="s">
+      <c r="D16" s="294" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="463" t="s">
@@ -8818,13 +8826,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="487"/>
-      <c r="D17" s="290" t="s">
+      <c r="D17" s="289" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="294" t="s">
+      <c r="E17" s="293" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="289"/>
+      <c r="F17" s="288"/>
       <c r="G17" s="88" t="s">
         <v>373</v>
       </c>
@@ -8843,10 +8851,10 @@
       <c r="A18" s="482"/>
       <c r="B18" s="488"/>
       <c r="C18" s="489"/>
-      <c r="D18" s="292" t="s">
+      <c r="D18" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="291" t="s">
+      <c r="E18" s="290" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="124"/>
@@ -8870,7 +8878,7 @@
       <c r="A19" s="162"/>
       <c r="B19" s="213"/>
       <c r="C19" s="151"/>
-      <c r="D19" s="293" t="s">
+      <c r="D19" s="292" t="s">
         <v>405</v>
       </c>
       <c r="E19" s="150"/>
@@ -9102,9 +9110,9 @@
         <v>59</v>
       </c>
       <c r="C29" s="372"/>
-      <c r="D29" s="448"/>
-      <c r="E29" s="448"/>
-      <c r="F29" s="448"/>
+      <c r="D29" s="788"/>
+      <c r="E29" s="788"/>
+      <c r="F29" s="788"/>
       <c r="G29" s="144"/>
       <c r="H29" s="152"/>
       <c r="I29" s="435"/>
@@ -9121,9 +9129,9 @@
       <c r="A30" s="461"/>
       <c r="B30" s="373"/>
       <c r="C30" s="374"/>
-      <c r="D30" s="389"/>
-      <c r="E30" s="389"/>
-      <c r="F30" s="389"/>
+      <c r="D30" s="789"/>
+      <c r="E30" s="789"/>
+      <c r="F30" s="789"/>
       <c r="G30" s="144"/>
       <c r="H30" s="152"/>
       <c r="I30" s="429" t="s">
@@ -9681,8 +9689,8 @@
       <c r="G54" s="331"/>
       <c r="H54" s="332"/>
       <c r="I54" s="333"/>
-      <c r="J54" s="286"/>
-      <c r="K54" s="285"/>
+      <c r="J54" s="285"/>
+      <c r="K54" s="284"/>
       <c r="L54" s="252"/>
       <c r="M54" s="253"/>
       <c r="N54" s="254"/>
@@ -9702,8 +9710,8 @@
       <c r="G55" s="331"/>
       <c r="H55" s="332"/>
       <c r="I55" s="333"/>
-      <c r="J55" s="286"/>
-      <c r="K55" s="285"/>
+      <c r="J55" s="285"/>
+      <c r="K55" s="284"/>
       <c r="L55" s="252"/>
       <c r="M55" s="255"/>
       <c r="N55" s="254"/>
@@ -9723,8 +9731,8 @@
       <c r="G56" s="331"/>
       <c r="H56" s="332"/>
       <c r="I56" s="333"/>
-      <c r="J56" s="286"/>
-      <c r="K56" s="285"/>
+      <c r="J56" s="285"/>
+      <c r="K56" s="284"/>
       <c r="L56" s="252"/>
       <c r="M56" s="256"/>
       <c r="N56" s="254"/>
@@ -9744,8 +9752,8 @@
       <c r="G57" s="331"/>
       <c r="H57" s="332"/>
       <c r="I57" s="333"/>
-      <c r="J57" s="286"/>
-      <c r="K57" s="285"/>
+      <c r="J57" s="285"/>
+      <c r="K57" s="284"/>
       <c r="L57" s="252"/>
       <c r="M57" s="255"/>
       <c r="N57" s="254"/>
@@ -9765,8 +9773,8 @@
       <c r="G58" s="345"/>
       <c r="H58" s="346"/>
       <c r="I58" s="347"/>
-      <c r="J58" s="287"/>
-      <c r="K58" s="288"/>
+      <c r="J58" s="286"/>
+      <c r="K58" s="287"/>
       <c r="L58" s="257"/>
       <c r="M58" s="258"/>
       <c r="N58" s="254"/>
@@ -14045,7 +14053,7 @@
       <c r="J5" s="525"/>
       <c r="K5" s="525"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="308"/>
+      <c r="M5" s="307"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="526"/>
@@ -15742,8 +15750,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D65"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -15765,35 +15773,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="760"/>
-      <c r="B1" s="761"/>
-      <c r="C1" s="761"/>
-      <c r="D1" s="761"/>
-      <c r="E1" s="761"/>
-      <c r="F1" s="761"/>
-      <c r="G1" s="761"/>
-      <c r="H1" s="761"/>
-      <c r="I1" s="761"/>
-      <c r="J1" s="761"/>
-      <c r="K1" s="761"/>
-      <c r="L1" s="761"/>
-      <c r="M1" s="762"/>
+      <c r="A1" s="765"/>
+      <c r="B1" s="766"/>
+      <c r="C1" s="766"/>
+      <c r="D1" s="766"/>
+      <c r="E1" s="766"/>
+      <c r="F1" s="766"/>
+      <c r="G1" s="766"/>
+      <c r="H1" s="766"/>
+      <c r="I1" s="766"/>
+      <c r="J1" s="766"/>
+      <c r="K1" s="766"/>
+      <c r="L1" s="766"/>
+      <c r="M1" s="767"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="726" t="s">
+      <c r="A2" s="731" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="727"/>
-      <c r="C2" s="765" t="s">
+      <c r="B2" s="732"/>
+      <c r="C2" s="770" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="765"/>
-      <c r="E2" s="765"/>
-      <c r="F2" s="766"/>
+      <c r="D2" s="770"/>
+      <c r="E2" s="770"/>
+      <c r="F2" s="771"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="763"/>
-      <c r="J2" s="763"/>
+      <c r="I2" s="768"/>
+      <c r="J2" s="768"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22"/>
@@ -15801,16 +15809,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="740" t="s">
+      <c r="C3" s="745" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="740"/>
-      <c r="E3" s="740"/>
-      <c r="F3" s="741"/>
+      <c r="D3" s="745"/>
+      <c r="E3" s="745"/>
+      <c r="F3" s="746"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="764"/>
-      <c r="J3" s="764"/>
+      <c r="I3" s="769"/>
+      <c r="J3" s="769"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="27"/>
@@ -15818,12 +15826,12 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="740" t="s">
+      <c r="C4" s="745" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="740"/>
-      <c r="E4" s="740"/>
-      <c r="F4" s="741"/>
+      <c r="D4" s="745"/>
+      <c r="E4" s="745"/>
+      <c r="F4" s="746"/>
       <c r="G4" s="175"/>
       <c r="H4" s="229"/>
       <c r="I4" s="175"/>
@@ -15835,10 +15843,10 @@
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="740"/>
-      <c r="D5" s="740"/>
-      <c r="E5" s="740"/>
-      <c r="F5" s="741"/>
+      <c r="C5" s="745"/>
+      <c r="D5" s="745"/>
+      <c r="E5" s="745"/>
+      <c r="F5" s="746"/>
       <c r="G5" s="640"/>
       <c r="H5" s="640"/>
       <c r="I5" s="640"/>
@@ -15850,22 +15858,22 @@
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="740" t="s">
+      <c r="C6" s="745" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="740"/>
-      <c r="E6" s="740"/>
-      <c r="F6" s="741"/>
-      <c r="G6" s="746" t="s">
+      <c r="D6" s="745"/>
+      <c r="E6" s="745"/>
+      <c r="F6" s="746"/>
+      <c r="G6" s="751" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="747"/>
-      <c r="I6" s="745" t="s">
+      <c r="H6" s="752"/>
+      <c r="I6" s="750" t="s">
         <v>411</v>
       </c>
-      <c r="J6" s="745"/>
-      <c r="K6" s="745"/>
-      <c r="L6" s="745"/>
+      <c r="J6" s="750"/>
+      <c r="K6" s="750"/>
+      <c r="L6" s="750"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="137" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -15886,12 +15894,12 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="740" t="s">
+      <c r="C8" s="745" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="740"/>
-      <c r="E8" s="740"/>
-      <c r="F8" s="741"/>
+      <c r="D8" s="745"/>
+      <c r="E8" s="745"/>
+      <c r="F8" s="746"/>
       <c r="G8" s="661" t="s">
         <v>410</v>
       </c>
@@ -15922,10 +15930,10 @@
     <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="740"/>
-      <c r="D10" s="740"/>
-      <c r="E10" s="740"/>
-      <c r="F10" s="741"/>
+      <c r="C10" s="745"/>
+      <c r="D10" s="745"/>
+      <c r="E10" s="745"/>
+      <c r="F10" s="746"/>
       <c r="G10" s="640" t="s">
         <v>329</v>
       </c>
@@ -15939,10 +15947,10 @@
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="740"/>
-      <c r="D11" s="740"/>
-      <c r="E11" s="740"/>
-      <c r="F11" s="741"/>
+      <c r="C11" s="745"/>
+      <c r="D11" s="745"/>
+      <c r="E11" s="745"/>
+      <c r="F11" s="746"/>
       <c r="G11" s="139"/>
       <c r="H11" s="658"/>
       <c r="I11" s="658"/>
@@ -15954,27 +15962,27 @@
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="742"/>
-      <c r="D12" s="742"/>
-      <c r="E12" s="742"/>
-      <c r="F12" s="743"/>
+      <c r="C12" s="747"/>
+      <c r="D12" s="747"/>
+      <c r="E12" s="747"/>
+      <c r="F12" s="748"/>
       <c r="G12" s="140"/>
       <c r="H12" s="140"/>
-      <c r="I12" s="744"/>
-      <c r="J12" s="744"/>
-      <c r="K12" s="744"/>
-      <c r="L12" s="744"/>
+      <c r="I12" s="749"/>
+      <c r="J12" s="749"/>
+      <c r="K12" s="749"/>
+      <c r="L12" s="749"/>
       <c r="M12" s="115"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="779" t="s">
+      <c r="A13" s="784" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="780"/>
-      <c r="C13" s="773" t="s">
+      <c r="B13" s="785"/>
+      <c r="C13" s="778" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="773"/>
+      <c r="D13" s="778"/>
       <c r="E13" s="595"/>
       <c r="F13" s="596"/>
       <c r="G13" s="661" t="s">
@@ -15982,18 +15990,18 @@
       </c>
       <c r="H13" s="662"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="781" t="s">
+      <c r="J13" s="786" t="s">
         <v>413</v>
       </c>
-      <c r="K13" s="781"/>
-      <c r="L13" s="781"/>
-      <c r="M13" s="782"/>
+      <c r="K13" s="786"/>
+      <c r="L13" s="786"/>
+      <c r="M13" s="787"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="773"/>
-      <c r="D14" s="773"/>
+      <c r="C14" s="778"/>
+      <c r="D14" s="778"/>
       <c r="E14" s="595"/>
       <c r="F14" s="596"/>
       <c r="G14" s="639" t="s">
@@ -16009,16 +16017,16 @@
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
-      <c r="C15" s="773"/>
-      <c r="D15" s="773"/>
+      <c r="C15" s="778"/>
+      <c r="D15" s="778"/>
       <c r="E15" s="595"/>
       <c r="F15" s="596"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="778"/>
-      <c r="I15" s="778"/>
-      <c r="J15" s="778"/>
-      <c r="K15" s="778"/>
-      <c r="L15" s="778"/>
+      <c r="H15" s="783"/>
+      <c r="I15" s="783"/>
+      <c r="J15" s="783"/>
+      <c r="K15" s="783"/>
+      <c r="L15" s="783"/>
       <c r="M15" s="114"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16030,10 +16038,10 @@
       <c r="F16" s="596"/>
       <c r="G16" s="111"/>
       <c r="H16" s="239"/>
-      <c r="I16" s="770"/>
-      <c r="J16" s="770"/>
-      <c r="K16" s="770"/>
-      <c r="L16" s="770"/>
+      <c r="I16" s="775"/>
+      <c r="J16" s="775"/>
+      <c r="K16" s="775"/>
+      <c r="L16" s="775"/>
       <c r="M16" s="112"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16045,7 +16053,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="97"/>
       <c r="H17" s="98"/>
-      <c r="I17" s="299"/>
+      <c r="I17" s="298"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
       <c r="L17" s="98"/>
@@ -16097,10 +16105,10 @@
       <c r="E20" s="643"/>
       <c r="F20" s="644"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="749" t="s">
+      <c r="H20" s="754" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="749"/>
+      <c r="I20" s="754"/>
       <c r="J20" s="248"/>
       <c r="K20" s="658"/>
       <c r="L20" s="658"/>
@@ -16113,11 +16121,11 @@
       <c r="D21" s="642"/>
       <c r="E21" s="643"/>
       <c r="F21" s="644"/>
-      <c r="G21" s="750" t="s">
+      <c r="G21" s="755" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="751"/>
-      <c r="I21" s="751"/>
+      <c r="H21" s="756"/>
+      <c r="I21" s="756"/>
       <c r="J21" s="248"/>
       <c r="K21" s="659"/>
       <c r="L21" s="659"/>
@@ -16204,10 +16212,10 @@
       <c r="F26" s="654"/>
       <c r="G26" s="111"/>
       <c r="H26" s="239"/>
-      <c r="I26" s="777"/>
-      <c r="J26" s="770"/>
-      <c r="K26" s="770"/>
-      <c r="L26" s="770"/>
+      <c r="I26" s="782"/>
+      <c r="J26" s="775"/>
+      <c r="K26" s="775"/>
+      <c r="L26" s="775"/>
       <c r="M26" s="112"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16226,10 +16234,10 @@
       </c>
       <c r="H27" s="662"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="748" t="s">
+      <c r="J27" s="753" t="s">
         <v>413</v>
       </c>
-      <c r="K27" s="748"/>
+      <c r="K27" s="753"/>
       <c r="L27" s="31"/>
       <c r="M27" s="32"/>
     </row>
@@ -16296,12 +16304,12 @@
       </c>
       <c r="H31" s="665"/>
       <c r="I31" s="665"/>
-      <c r="J31" s="758" t="s">
+      <c r="J31" s="763" t="s">
         <v>413</v>
       </c>
-      <c r="K31" s="758"/>
-      <c r="L31" s="758"/>
-      <c r="M31" s="759"/>
+      <c r="K31" s="763"/>
+      <c r="L31" s="763"/>
+      <c r="M31" s="764"/>
     </row>
     <row r="32" spans="1:13" s="131" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -16318,7 +16326,7 @@
       <c r="J32" s="657"/>
       <c r="K32" s="655"/>
       <c r="L32" s="655"/>
-      <c r="M32" s="755"/>
+      <c r="M32" s="760"/>
     </row>
     <row r="33" spans="1:14" s="177" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
@@ -16331,9 +16339,9 @@
       <c r="H33" s="55"/>
       <c r="I33" s="105"/>
       <c r="J33" s="105"/>
-      <c r="K33" s="298"/>
-      <c r="L33" s="298"/>
-      <c r="M33" s="300"/>
+      <c r="K33" s="297"/>
+      <c r="L33" s="297"/>
+      <c r="M33" s="299"/>
     </row>
     <row r="34" spans="1:14" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
@@ -16344,17 +16352,17 @@
       <c r="D34" s="651"/>
       <c r="E34" s="651"/>
       <c r="F34" s="652"/>
-      <c r="G34" s="752" t="s">
+      <c r="G34" s="757" t="s">
         <v>410</v>
       </c>
-      <c r="H34" s="753"/>
-      <c r="I34" s="753"/>
+      <c r="H34" s="758"/>
+      <c r="I34" s="758"/>
       <c r="J34" s="663" t="s">
         <v>413</v>
       </c>
       <c r="K34" s="663"/>
       <c r="L34" s="663"/>
-      <c r="M34" s="754"/>
+      <c r="M34" s="759"/>
     </row>
     <row r="35" spans="1:14" s="177" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
@@ -16393,31 +16401,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="636"/>
-      <c r="C37" s="771" t="s">
+      <c r="C37" s="776" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="771"/>
-      <c r="E37" s="771"/>
-      <c r="F37" s="772"/>
-      <c r="G37" s="756" t="s">
+      <c r="D37" s="776"/>
+      <c r="E37" s="776"/>
+      <c r="F37" s="777"/>
+      <c r="G37" s="761" t="s">
         <v>410</v>
       </c>
-      <c r="H37" s="757"/>
-      <c r="I37" s="757"/>
-      <c r="J37" s="758" t="s">
+      <c r="H37" s="762"/>
+      <c r="I37" s="762"/>
+      <c r="J37" s="763" t="s">
         <v>413</v>
       </c>
-      <c r="K37" s="758"/>
-      <c r="L37" s="758"/>
-      <c r="M37" s="759"/>
+      <c r="K37" s="763"/>
+      <c r="L37" s="763"/>
+      <c r="M37" s="764"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="773"/>
-      <c r="D38" s="773"/>
-      <c r="E38" s="773"/>
-      <c r="F38" s="774"/>
+      <c r="C38" s="778"/>
+      <c r="D38" s="778"/>
+      <c r="E38" s="778"/>
+      <c r="F38" s="779"/>
       <c r="G38" s="639" t="s">
         <v>340</v>
       </c>
@@ -16431,10 +16439,10 @@
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="773"/>
-      <c r="D39" s="773"/>
-      <c r="E39" s="773"/>
-      <c r="F39" s="774"/>
+      <c r="C39" s="778"/>
+      <c r="D39" s="778"/>
+      <c r="E39" s="778"/>
+      <c r="F39" s="779"/>
       <c r="G39" s="109"/>
       <c r="H39" s="660"/>
       <c r="I39" s="660"/>
@@ -16446,23 +16454,23 @@
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="45"/>
-      <c r="C40" s="775"/>
-      <c r="D40" s="775"/>
-      <c r="E40" s="775"/>
-      <c r="F40" s="776"/>
+      <c r="C40" s="780"/>
+      <c r="D40" s="780"/>
+      <c r="E40" s="780"/>
+      <c r="F40" s="781"/>
       <c r="G40" s="111"/>
       <c r="H40" s="239"/>
-      <c r="I40" s="770"/>
-      <c r="J40" s="770"/>
-      <c r="K40" s="770"/>
-      <c r="L40" s="770"/>
+      <c r="I40" s="775"/>
+      <c r="J40" s="775"/>
+      <c r="K40" s="775"/>
+      <c r="L40" s="775"/>
       <c r="M40" s="112"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="768" t="s">
+      <c r="A41" s="773" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="769"/>
+      <c r="B41" s="774"/>
       <c r="C41" s="651" t="s">
         <v>78</v>
       </c>
@@ -16504,17 +16512,17 @@
       <c r="D43" s="651"/>
       <c r="E43" s="651"/>
       <c r="F43" s="652"/>
-      <c r="G43" s="752" t="s">
+      <c r="G43" s="757" t="s">
         <v>410</v>
       </c>
-      <c r="H43" s="753"/>
-      <c r="I43" s="753"/>
+      <c r="H43" s="758"/>
+      <c r="I43" s="758"/>
       <c r="J43" s="663" t="s">
         <v>413</v>
       </c>
       <c r="K43" s="663"/>
       <c r="L43" s="663"/>
-      <c r="M43" s="754"/>
+      <c r="M43" s="759"/>
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16531,7 +16539,7 @@
       <c r="I44" s="105"/>
       <c r="J44" s="105"/>
       <c r="K44" s="175"/>
-      <c r="L44" s="301"/>
+      <c r="L44" s="300"/>
       <c r="M44" s="106"/>
       <c r="N44" s="55"/>
     </row>
@@ -16546,17 +16554,17 @@
       <c r="D45" s="652"/>
       <c r="E45" s="652"/>
       <c r="F45" s="652"/>
-      <c r="G45" s="752" t="s">
+      <c r="G45" s="757" t="s">
         <v>410</v>
       </c>
-      <c r="H45" s="753"/>
-      <c r="I45" s="753"/>
+      <c r="H45" s="758"/>
+      <c r="I45" s="758"/>
       <c r="J45" s="663" t="s">
         <v>413</v>
       </c>
       <c r="K45" s="663"/>
       <c r="L45" s="663"/>
-      <c r="M45" s="754"/>
+      <c r="M45" s="759"/>
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16573,7 +16581,7 @@
       <c r="I46" s="105"/>
       <c r="J46" s="105"/>
       <c r="K46" s="105"/>
-      <c r="L46" s="301"/>
+      <c r="L46" s="300"/>
       <c r="M46" s="106"/>
       <c r="N46" s="55"/>
     </row>
@@ -16588,26 +16596,26 @@
       <c r="D47" s="651"/>
       <c r="E47" s="102"/>
       <c r="F47" s="103"/>
-      <c r="G47" s="752" t="s">
+      <c r="G47" s="757" t="s">
         <v>410</v>
       </c>
-      <c r="H47" s="753"/>
-      <c r="I47" s="753"/>
+      <c r="H47" s="758"/>
+      <c r="I47" s="758"/>
       <c r="J47" s="663" t="s">
         <v>413</v>
       </c>
       <c r="K47" s="663"/>
       <c r="L47" s="663"/>
-      <c r="M47" s="754"/>
+      <c r="M47" s="759"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="719"/>
-      <c r="B48" s="720"/>
-      <c r="C48" s="720"/>
-      <c r="D48" s="720"/>
-      <c r="E48" s="720"/>
-      <c r="F48" s="721"/>
+      <c r="A48" s="724"/>
+      <c r="B48" s="725"/>
+      <c r="C48" s="725"/>
+      <c r="D48" s="725"/>
+      <c r="E48" s="725"/>
+      <c r="F48" s="726"/>
       <c r="G48" s="188" t="s">
         <v>328</v>
       </c>
@@ -16615,17 +16623,17 @@
       <c r="I48" s="107"/>
       <c r="J48" s="107"/>
       <c r="K48" s="107"/>
-      <c r="L48" s="301"/>
+      <c r="L48" s="300"/>
       <c r="M48" s="108"/>
       <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="722"/>
-      <c r="B49" s="723"/>
-      <c r="C49" s="723"/>
-      <c r="D49" s="723"/>
-      <c r="E49" s="723"/>
-      <c r="F49" s="724"/>
+      <c r="A49" s="727"/>
+      <c r="B49" s="728"/>
+      <c r="C49" s="728"/>
+      <c r="D49" s="728"/>
+      <c r="E49" s="728"/>
+      <c r="F49" s="729"/>
       <c r="G49" s="104"/>
       <c r="H49" s="100"/>
       <c r="I49" s="100"/>
@@ -16649,128 +16657,128 @@
       <c r="G50" s="184"/>
       <c r="H50" s="184"/>
       <c r="I50" s="185"/>
-      <c r="J50" s="302"/>
-      <c r="K50" s="303"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="304"/>
+      <c r="J50" s="301"/>
+      <c r="K50" s="302"/>
+      <c r="L50" s="302"/>
+      <c r="M50" s="303"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="716" t="s">
+      <c r="A51" s="721" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="717"/>
-      <c r="C51" s="717"/>
-      <c r="D51" s="717"/>
-      <c r="E51" s="718"/>
+      <c r="B51" s="722"/>
+      <c r="C51" s="722"/>
+      <c r="D51" s="722"/>
+      <c r="E51" s="723"/>
       <c r="F51" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="725" t="s">
+      <c r="G51" s="730" t="s">
         <v>77</v>
       </c>
       <c r="H51" s="577"/>
       <c r="I51" s="579"/>
-      <c r="J51" s="305"/>
-      <c r="K51" s="306"/>
-      <c r="L51" s="306"/>
-      <c r="M51" s="307"/>
+      <c r="J51" s="304"/>
+      <c r="K51" s="305"/>
+      <c r="L51" s="305"/>
+      <c r="M51" s="306"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="734"/>
-      <c r="B52" s="735"/>
-      <c r="C52" s="729"/>
-      <c r="D52" s="729"/>
-      <c r="E52" s="737"/>
-      <c r="F52" s="283"/>
-      <c r="G52" s="728"/>
-      <c r="H52" s="729"/>
-      <c r="I52" s="730"/>
-      <c r="J52" s="305"/>
-      <c r="K52" s="306"/>
-      <c r="L52" s="306"/>
-      <c r="M52" s="307"/>
+      <c r="A52" s="739"/>
+      <c r="B52" s="740"/>
+      <c r="C52" s="734"/>
+      <c r="D52" s="734"/>
+      <c r="E52" s="742"/>
+      <c r="F52" s="282"/>
+      <c r="G52" s="733"/>
+      <c r="H52" s="734"/>
+      <c r="I52" s="735"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="305"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="306"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="734"/>
-      <c r="B53" s="735"/>
-      <c r="C53" s="735"/>
-      <c r="D53" s="735"/>
-      <c r="E53" s="736"/>
-      <c r="F53" s="283"/>
-      <c r="G53" s="728"/>
-      <c r="H53" s="729"/>
-      <c r="I53" s="730"/>
-      <c r="J53" s="305"/>
-      <c r="K53" s="306"/>
-      <c r="L53" s="306"/>
-      <c r="M53" s="307"/>
+      <c r="A53" s="739"/>
+      <c r="B53" s="740"/>
+      <c r="C53" s="740"/>
+      <c r="D53" s="740"/>
+      <c r="E53" s="741"/>
+      <c r="F53" s="282"/>
+      <c r="G53" s="733"/>
+      <c r="H53" s="734"/>
+      <c r="I53" s="735"/>
+      <c r="J53" s="304"/>
+      <c r="K53" s="305"/>
+      <c r="L53" s="305"/>
+      <c r="M53" s="306"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="731"/>
-      <c r="B54" s="732"/>
-      <c r="C54" s="714"/>
-      <c r="D54" s="714"/>
-      <c r="E54" s="733"/>
-      <c r="F54" s="284"/>
-      <c r="G54" s="713"/>
-      <c r="H54" s="714"/>
-      <c r="I54" s="715"/>
-      <c r="J54" s="305"/>
-      <c r="K54" s="306"/>
-      <c r="L54" s="306"/>
-      <c r="M54" s="307"/>
+      <c r="A54" s="736"/>
+      <c r="B54" s="737"/>
+      <c r="C54" s="719"/>
+      <c r="D54" s="719"/>
+      <c r="E54" s="738"/>
+      <c r="F54" s="283"/>
+      <c r="G54" s="718"/>
+      <c r="H54" s="719"/>
+      <c r="I54" s="720"/>
+      <c r="J54" s="304"/>
+      <c r="K54" s="305"/>
+      <c r="L54" s="305"/>
+      <c r="M54" s="306"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="726" t="s">
+      <c r="A55" s="731" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="727"/>
-      <c r="C55" s="738" t="s">
+      <c r="B55" s="732"/>
+      <c r="C55" s="743" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="738"/>
-      <c r="E55" s="738"/>
-      <c r="F55" s="738"/>
-      <c r="G55" s="738"/>
-      <c r="H55" s="738"/>
+      <c r="D55" s="743"/>
+      <c r="E55" s="743"/>
+      <c r="F55" s="743"/>
+      <c r="G55" s="743"/>
+      <c r="H55" s="743"/>
       <c r="I55" s="244"/>
-      <c r="J55" s="305"/>
-      <c r="K55" s="306"/>
-      <c r="L55" s="306"/>
-      <c r="M55" s="307"/>
+      <c r="J55" s="304"/>
+      <c r="K55" s="305"/>
+      <c r="L55" s="305"/>
+      <c r="M55" s="306"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
       <c r="B56" s="57"/>
-      <c r="C56" s="739"/>
-      <c r="D56" s="739"/>
-      <c r="E56" s="739"/>
-      <c r="F56" s="739"/>
-      <c r="G56" s="739"/>
-      <c r="H56" s="739"/>
+      <c r="C56" s="744"/>
+      <c r="D56" s="744"/>
+      <c r="E56" s="744"/>
+      <c r="F56" s="744"/>
+      <c r="G56" s="744"/>
+      <c r="H56" s="744"/>
       <c r="I56" s="245"/>
       <c r="J56" s="193"/>
-      <c r="K56" s="712" t="s">
+      <c r="K56" s="717" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="712"/>
+      <c r="L56" s="717"/>
       <c r="M56" s="173"/>
     </row>
     <row r="57" spans="1:14" s="168" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="56"/>
       <c r="B57" s="57"/>
-      <c r="C57" s="739"/>
-      <c r="D57" s="739"/>
-      <c r="E57" s="739"/>
-      <c r="F57" s="739"/>
-      <c r="G57" s="739"/>
-      <c r="H57" s="739"/>
+      <c r="C57" s="744"/>
+      <c r="D57" s="744"/>
+      <c r="E57" s="744"/>
+      <c r="F57" s="744"/>
+      <c r="G57" s="744"/>
+      <c r="H57" s="744"/>
       <c r="I57" s="245"/>
-      <c r="J57" s="712"/>
-      <c r="K57" s="712"/>
-      <c r="L57" s="712"/>
-      <c r="M57" s="767"/>
+      <c r="J57" s="717"/>
+      <c r="K57" s="717"/>
+      <c r="L57" s="717"/>
+      <c r="M57" s="772"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="171"/>
@@ -16783,8 +16791,8 @@
       <c r="H58" s="246"/>
       <c r="I58" s="247"/>
       <c r="J58" s="175"/>
-      <c r="K58" s="686"/>
-      <c r="L58" s="687"/>
+      <c r="K58" s="687"/>
+      <c r="L58" s="688"/>
       <c r="M58" s="176"/>
     </row>
     <row r="59" spans="1:14" s="168" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16798,42 +16806,42 @@
       <c r="H59" s="170"/>
       <c r="I59" s="170"/>
       <c r="J59" s="175"/>
-      <c r="K59" s="688"/>
-      <c r="L59" s="689"/>
+      <c r="K59" s="689"/>
+      <c r="L59" s="690"/>
       <c r="M59" s="176"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
-      <c r="B60" s="705" t="s">
+      <c r="B60" s="706" t="s">
         <v>400</v>
       </c>
-      <c r="C60" s="706"/>
-      <c r="D60" s="707"/>
+      <c r="C60" s="707"/>
+      <c r="D60" s="708"/>
       <c r="E60" s="59"/>
-      <c r="F60" s="696"/>
-      <c r="G60" s="697"/>
-      <c r="H60" s="697"/>
-      <c r="I60" s="698"/>
+      <c r="F60" s="697"/>
+      <c r="G60" s="698"/>
+      <c r="H60" s="698"/>
+      <c r="I60" s="699"/>
       <c r="J60" s="175"/>
-      <c r="K60" s="688"/>
-      <c r="L60" s="689"/>
+      <c r="K60" s="689"/>
+      <c r="L60" s="690"/>
       <c r="M60" s="60"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
-      <c r="B61" s="692" t="s">
+      <c r="B61" s="693" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="693"/>
-      <c r="D61" s="282"/>
+      <c r="C61" s="694"/>
+      <c r="D61" s="308"/>
       <c r="E61" s="59"/>
-      <c r="F61" s="699"/>
-      <c r="G61" s="700"/>
-      <c r="H61" s="700"/>
-      <c r="I61" s="701"/>
+      <c r="F61" s="700"/>
+      <c r="G61" s="701"/>
+      <c r="H61" s="701"/>
+      <c r="I61" s="702"/>
       <c r="J61" s="175"/>
-      <c r="K61" s="688"/>
-      <c r="L61" s="689"/>
+      <c r="K61" s="689"/>
+      <c r="L61" s="690"/>
       <c r="M61" s="60"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16842,32 +16850,32 @@
         <v>390</v>
       </c>
       <c r="C62" s="682"/>
-      <c r="D62" s="685"/>
+      <c r="D62" s="709"/>
       <c r="E62" s="59"/>
-      <c r="F62" s="702"/>
-      <c r="G62" s="703"/>
-      <c r="H62" s="703"/>
-      <c r="I62" s="704"/>
+      <c r="F62" s="703"/>
+      <c r="G62" s="704"/>
+      <c r="H62" s="704"/>
+      <c r="I62" s="705"/>
       <c r="J62" s="175"/>
-      <c r="K62" s="688"/>
-      <c r="L62" s="689"/>
+      <c r="K62" s="689"/>
+      <c r="L62" s="690"/>
       <c r="M62" s="60"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-      <c r="B63" s="694"/>
-      <c r="C63" s="695"/>
-      <c r="D63" s="708"/>
+      <c r="B63" s="695"/>
+      <c r="C63" s="696"/>
+      <c r="D63" s="710"/>
       <c r="E63" s="59"/>
-      <c r="F63" s="709" t="s">
+      <c r="F63" s="711" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="710"/>
-      <c r="H63" s="710"/>
-      <c r="I63" s="711"/>
+      <c r="G63" s="712"/>
+      <c r="H63" s="712"/>
+      <c r="I63" s="713"/>
       <c r="J63" s="175"/>
-      <c r="K63" s="688"/>
-      <c r="L63" s="689"/>
+      <c r="K63" s="689"/>
+      <c r="L63" s="690"/>
       <c r="M63" s="60"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16876,22 +16884,22 @@
         <v>389</v>
       </c>
       <c r="C64" s="682"/>
-      <c r="D64" s="786"/>
+      <c r="D64" s="685"/>
       <c r="E64" s="59"/>
-      <c r="F64" s="783"/>
-      <c r="G64" s="784"/>
-      <c r="H64" s="784"/>
-      <c r="I64" s="785"/>
+      <c r="F64" s="714"/>
+      <c r="G64" s="715"/>
+      <c r="H64" s="715"/>
+      <c r="I64" s="716"/>
       <c r="J64" s="61"/>
-      <c r="K64" s="690"/>
-      <c r="L64" s="691"/>
+      <c r="K64" s="691"/>
+      <c r="L64" s="692"/>
       <c r="M64" s="60"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="58"/>
       <c r="B65" s="683"/>
       <c r="C65" s="684"/>
-      <c r="D65" s="787"/>
+      <c r="D65" s="686"/>
       <c r="E65" s="59"/>
       <c r="F65" s="678" t="s">
         <v>95</v>
